--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFC6620-B963-4DEE-B83A-2CE83B9C0D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD26608-8F0A-423B-B0D5-4DE3B94B48B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1350" yWindow="-18720" windowWidth="29835" windowHeight="14745" tabRatio="780" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="CommData_BASE" sheetId="30" r:id="rId11"/>
     <sheet name="Processes_BASE" sheetId="31" r:id="rId12"/>
     <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId13"/>
-    <sheet name="ProcData_IFM" sheetId="56" r:id="rId14"/>
+    <sheet name="ProcData_FM" sheetId="56" r:id="rId14"/>
     <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId15"/>
     <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId16"/>
     <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId17"/>
@@ -1139,7 +1139,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4065,9 +4065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
+      <xdr:colOff>843280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4118,9 +4118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>614680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4171,9 +4171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>614680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4279,7 +4279,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4332,7 +4332,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4436,9 +4436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
+      <xdr:colOff>843280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4501,9 +4501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>614680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4566,9 +4566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>614680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4698,7 +4698,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4763,7 +4763,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16218,52 +16218,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -16289,7 +16289,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
@@ -16298,16 +16298,16 @@
     <col min="5" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1"/>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1"/>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1"/>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1"/>
-    <row r="7" spans="1:4">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -16342,10 +16342,10 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
@@ -16354,7 +16354,7 @@
     <col min="5" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>CommData</v>
@@ -16365,17 +16365,17 @@
       </c>
       <c r="F1" s="53"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
         <v>CommData_BASE</v>
       </c>
       <c r="F2" s="53"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="26" t="s">
         <v>135</v>
       </c>
@@ -16383,15 +16383,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="64"/>
       <c r="F5" s="53"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" s="64"/>
       <c r="F6" s="53"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="53" customFormat="1">
+    <row r="8" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="str">
         <f>RES!O2</f>
         <v>IFAMN</v>
@@ -16429,11 +16429,11 @@
         <v>0.4587</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="53" customFormat="1">
+    <row r="9" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
     </row>
-    <row r="10" spans="1:6" s="53" customFormat="1"/>
-    <row r="11" spans="1:6" s="53" customFormat="1"/>
+    <row r="10" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
@@ -16454,7 +16454,7 @@
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="12" customWidth="1"/>
@@ -16465,7 +16465,7 @@
     <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>Processes</v>
@@ -16475,14 +16475,14 @@
         <v>REGION1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
         <v>Processes_BASE</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1"/>
-    <row r="7" spans="1:6">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>56</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="53" customFormat="1" ht="12">
+    <row r="8" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
         <v>147</v>
       </c>
@@ -16508,7 +16508,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:6" s="53" customFormat="1">
+    <row r="9" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="53" t="s">
         <v>241</v>
@@ -16523,7 +16523,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="53" customFormat="1">
+    <row r="10" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="50" t="str">
         <f>EB_Exist!C4</f>
@@ -16540,7 +16540,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="53" customFormat="1">
+    <row r="11" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="50" t="str">
         <f>RES!M15</f>
@@ -16557,7 +16557,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="53" customFormat="1" ht="12">
+    <row r="12" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="50" t="str">
         <f>RES!M22</f>
@@ -16574,84 +16574,84 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="53" customFormat="1" ht="12">
+    <row r="13" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:6" s="53" customFormat="1" ht="12">
+    <row r="14" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:6" s="53" customFormat="1" ht="12">
+    <row r="15" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:6" s="53" customFormat="1" ht="12">
+    <row r="16" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="17" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="18" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="19" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="20" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="21" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="22" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:10" s="53" customFormat="1" ht="12">
+    <row r="23" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="59"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:10" s="53" customFormat="1" ht="12.75">
+    <row r="24" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="59"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -16662,7 +16662,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" s="53" customFormat="1">
+    <row r="25" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -16674,7 +16674,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" s="53" customFormat="1">
+    <row r="26" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -16686,7 +16686,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" s="53" customFormat="1">
+    <row r="27" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -16698,7 +16698,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" s="53" customFormat="1">
+    <row r="28" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -16710,7 +16710,7 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" s="53" customFormat="1">
+    <row r="29" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -16722,7 +16722,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" s="53" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:10" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -16733,14 +16733,14 @@
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" s="53" customFormat="1">
+    <row r="31" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:10" s="53" customFormat="1">
+    <row r="32" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -16752,7 +16752,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" s="53" customFormat="1">
+    <row r="33" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -16764,7 +16764,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" s="53" customFormat="1">
+    <row r="34" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -16776,7 +16776,7 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" s="53" customFormat="1" ht="11.45" customHeight="1">
+    <row r="35" spans="1:10" s="53" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -16788,14 +16788,14 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" s="53" customFormat="1">
+    <row r="36" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
     </row>
-    <row r="37" spans="1:10" s="53" customFormat="1">
+    <row r="37" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -16807,7 +16807,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
-    <row r="38" spans="1:10" s="53" customFormat="1">
+    <row r="38" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -16819,14 +16819,14 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -16853,7 +16853,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="12" customWidth="1"/>
@@ -16865,18 +16865,18 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.25" customHeight="1">
+    <row r="1" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.25" customHeight="1">
+    <row r="2" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="E4" s="46" t="s">
         <v>92</v>
@@ -16884,13 +16884,13 @@
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1">
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>56</v>
@@ -16928,13 +16928,13 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
@@ -16950,7 +16950,7 @@
     <col min="30" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="11.25" customHeight="1">
+    <row r="1" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>ProcData</v>
@@ -16961,10 +16961,10 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:30" ht="11.25" customHeight="1">
+    <row r="2" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
-        <v>ProcData_IFM</v>
+        <v>ProcData_FM</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="53" t="s">
@@ -16977,7 +16977,7 @@
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:30" ht="34.5" customHeight="1">
+    <row r="3" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="H3" s="122" t="s">
         <v>156</v>
@@ -17037,7 +17037,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="21.75" customHeight="1">
+    <row r="4" spans="1:30" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -17112,7 +17112,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16.5" customHeight="1">
+    <row r="5" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="H5" s="63" t="s">
         <v>27</v>
@@ -17166,7 +17166,7 @@
         <v>INDBIO</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="17.25" customHeight="1">
+    <row r="6" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="H6" s="63" t="s">
         <v>126</v>
@@ -17184,7 +17184,7 @@
       </c>
       <c r="T6" s="57"/>
     </row>
-    <row r="7" spans="1:30" ht="21.75" customHeight="1">
+    <row r="7" spans="1:30" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>56</v>
@@ -17240,7 +17240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="12" t="str">
         <f>Processes_BASE!B9</f>
@@ -17281,7 +17281,7 @@
       <c r="W8" s="45"/>
       <c r="Y8" s="61"/>
     </row>
-    <row r="9" spans="1:30" ht="11.25" customHeight="1">
+    <row r="9" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="str">
         <f>Processes_BASE!A8</f>
         <v>* Conversion technologies</v>
@@ -17298,7 +17298,7 @@
       <c r="N9" s="123"/>
       <c r="O9" s="123"/>
     </row>
-    <row r="10" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="10" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="50" t="str">
         <f>Processes_BASE!B10</f>
@@ -17326,12 +17326,12 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Z10" s="124">
-        <f>EB_Exist!K6</f>
+        <f>EB_Exist!K6/EB_Exist!F5</f>
         <v>9.8455813953488391</v>
       </c>
       <c r="AA10" s="12"/>
     </row>
-    <row r="11" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="11" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="E11" s="129" t="str">
         <f>RES!E2</f>
@@ -17355,11 +17355,11 @@
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="AA11" s="165">
-        <f>EB_Exist!K7</f>
+        <f>EB_Exist!K7/EB_Exist!F5</f>
         <v>3.2818604651162797</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="12" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="E12" s="128" t="str">
         <f>RES!F2</f>
@@ -17382,11 +17382,11 @@
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="AB12" s="165">
-        <f>EB_Exist!K8</f>
+        <f>EB_Exist!K8/EB_Exist!F5</f>
         <v>12.96</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="13" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -17442,7 +17442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="14" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="50" t="str">
         <f>RES!M15</f>
@@ -17484,11 +17484,11 @@
       <c r="AA14" s="162"/>
       <c r="AB14" s="162"/>
       <c r="AC14" s="162"/>
-      <c r="AD14" s="162">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+      <c r="AD14" s="45">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -17522,7 +17522,7 @@
       <c r="AB15" s="162"/>
       <c r="AC15" s="162"/>
     </row>
-    <row r="16" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="16" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="AC16" s="162"/>
     </row>
-    <row r="17" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1">
+    <row r="17" spans="1:30" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -17591,7 +17591,7 @@
         <v>5.415069767441862</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="11.25" customHeight="1">
+    <row r="18" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="129" t="str">
         <f>RES!O2</f>
         <v>IFAMN</v>
@@ -17614,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="11.25" customHeight="1">
+    <row r="19" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="str">
         <f>RES!M22</f>
         <v>IFMEAFB-N</v>
@@ -17648,11 +17648,11 @@
       <c r="AA19" s="162"/>
       <c r="AB19" s="162"/>
       <c r="AC19" s="162"/>
-      <c r="AD19" s="163">
+      <c r="AD19" s="12">
         <v>2040</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="11.25" customHeight="1">
+    <row r="20" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="129" t="str">
         <f t="shared" ref="E20:E22" si="0">E15</f>
         <v>IISCOA</v>
@@ -17668,7 +17668,7 @@
       <c r="AB20" s="162"/>
       <c r="AC20" s="162"/>
     </row>
-    <row r="21" spans="1:30" ht="11.25" customHeight="1">
+    <row r="21" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="129" t="str">
         <f t="shared" si="0"/>
         <v>IFAELC</v>
@@ -17683,7 +17683,7 @@
       </c>
       <c r="AC21" s="162"/>
     </row>
-    <row r="22" spans="1:30" ht="11.25" customHeight="1">
+    <row r="22" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="129" t="str">
         <f t="shared" si="0"/>
         <v>INDBIO</v>
@@ -17698,7 +17698,7 @@
         <v>8.1226046511627938</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="11.25" customHeight="1">
+    <row r="23" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="129" t="str">
         <f>F18</f>
         <v>IFAMN</v>
@@ -17742,7 +17742,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.42578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="18" customWidth="1"/>
@@ -17769,12 +17769,12 @@
     <col min="26" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="19" customFormat="1" ht="11.25">
+    <row r="1" spans="1:24" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="19" customFormat="1" ht="11.25" customHeight="1">
+    <row r="2" spans="1:24" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -17794,7 +17794,7 @@
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
     </row>
-    <row r="3" spans="1:24" s="19" customFormat="1" ht="21.75" customHeight="1">
+    <row r="3" spans="1:24" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="H3" s="35" t="s">
         <v>67</v>
@@ -17848,7 +17848,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1">
+    <row r="4" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -17905,7 +17905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -17947,7 +17947,7 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
     </row>
-    <row r="6" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1">
+    <row r="6" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -17973,7 +17973,7 @@
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
     </row>
-    <row r="7" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1">
+    <row r="7" spans="1:24" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>46</v>
@@ -18027,7 +18027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="39"/>
@@ -18047,7 +18047,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -18091,7 +18091,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="12"/>
@@ -18101,13 +18101,13 @@
     <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1"/>
-    <row r="7" spans="1:7">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
@@ -18127,12 +18127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>26</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
@@ -18235,7 +18235,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
@@ -18244,13 +18244,13 @@
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1"/>
-    <row r="7" spans="1:18">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
@@ -18304,21 +18304,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
@@ -18363,7 +18363,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" customWidth="1"/>
@@ -18374,13 +18374,13 @@
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1"/>
-    <row r="7" spans="1:18" ht="22.5" customHeight="1">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
@@ -18434,14 +18434,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18" thickBot="1">
+    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="97" t="s">
         <v>160</v>
       </c>
@@ -18451,8 +18451,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="13.5" thickTop="1"/>
-    <row r="5" spans="2:5">
+    <row r="4" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="94" t="s">
         <v>161</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15">
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
         <v>162</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D7" t="str">
         <f ca="1">Commodities_BASE!A2</f>
         <v>Commodities_BASE</v>
@@ -18484,7 +18484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D8" t="str">
         <f ca="1">CommData_BASE!A2</f>
         <v>CommData_BASE</v>
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D9" t="str">
         <f ca="1">Processes_BASE!A2</f>
         <v>Processes_BASE</v>
@@ -18504,7 +18504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -18514,62 +18514,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D11" t="str">
-        <f ca="1">ProcData_IFM!A2</f>
-        <v>ProcData_IFM</v>
+        <f ca="1">ProcData_FM!A2</f>
+        <v>ProcData_FM</v>
       </c>
       <c r="E11" s="126">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" s="126"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E13" s="126"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" s="126"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E15" s="126"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E16" s="126"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="126"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="126"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="126"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="126"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="126"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="126"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="126"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="126"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="126"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="126"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" s="126"/>
     </row>
   </sheetData>
@@ -18587,7 +18587,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="12" customWidth="1"/>
@@ -18599,13 +18599,13 @@
     <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1"/>
-    <row r="7" spans="1:19">
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -18646,7 +18646,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>113</v>
       </c>
@@ -18669,7 +18669,7 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="12" customWidth="1"/>
@@ -18679,13 +18679,13 @@
     <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>112</v>
       </c>
@@ -18741,7 +18741,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12"/>
@@ -18751,13 +18751,13 @@
     <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.5" customHeight="1">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="20.25" customHeight="1"/>
-    <row r="7" spans="1:19" ht="23.25" customHeight="1">
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -18798,7 +18798,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1">
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
@@ -18823,7 +18823,7 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="65"/>
     <col min="2" max="2" width="9.140625" style="65" customWidth="1"/>
@@ -18842,7 +18842,7 @@
     <col min="28" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:31">
+    <row r="1" spans="3:31" x14ac:dyDescent="0.25">
       <c r="N1" s="65" t="s">
         <v>129</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="3:31" ht="84" customHeight="1">
+    <row r="2" spans="3:31" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="71"/>
       <c r="D2" s="154" t="s">
         <v>224</v>
@@ -18882,7 +18882,7 @@
       <c r="Z2" s="132"/>
       <c r="AA2" s="134"/>
     </row>
-    <row r="3" spans="3:31" ht="141" customHeight="1">
+    <row r="3" spans="3:31" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="71" t="s">
         <v>128</v>
       </c>
@@ -18918,7 +18918,7 @@
       <c r="Z3" s="134"/>
       <c r="AA3" s="140"/>
     </row>
-    <row r="4" spans="3:31">
+    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
@@ -18938,7 +18938,7 @@
       <c r="Z4" s="68"/>
       <c r="AA4" s="68"/>
     </row>
-    <row r="5" spans="3:31">
+    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D5" s="68"/>
       <c r="E5" s="73"/>
       <c r="F5" s="76"/>
@@ -18966,7 +18966,7 @@
       </c>
       <c r="AE5" s="90"/>
     </row>
-    <row r="6" spans="3:31">
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C6" s="71"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="AE6" s="86"/>
     </row>
-    <row r="7" spans="3:31">
+    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C7" s="71"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -19020,7 +19020,7 @@
       </c>
       <c r="AE7" s="88"/>
     </row>
-    <row r="8" spans="3:31">
+    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C8" s="71"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="AE8" s="85"/>
     </row>
-    <row r="9" spans="3:31">
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C9" s="71"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="AE9" s="87"/>
     </row>
-    <row r="10" spans="3:31">
+    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C10" s="71"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -19100,7 +19100,7 @@
       <c r="Z10" s="68"/>
       <c r="AA10" s="68"/>
     </row>
-    <row r="11" spans="3:31">
+    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" s="71"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -19123,7 +19123,7 @@
       <c r="AA11" s="68"/>
       <c r="AE11" s="67"/>
     </row>
-    <row r="12" spans="3:31">
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C12" s="71"/>
       <c r="D12" s="68"/>
       <c r="E12" s="73"/>
@@ -19148,7 +19148,7 @@
       <c r="Z12" s="68"/>
       <c r="AA12" s="68"/>
     </row>
-    <row r="13" spans="3:31">
+    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C13" s="71"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -19172,7 +19172,7 @@
       <c r="AA13" s="68"/>
       <c r="AD13" s="66"/>
     </row>
-    <row r="14" spans="3:31">
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C14" s="71"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -19193,7 +19193,7 @@
       <c r="Z14" s="68"/>
       <c r="AA14" s="68"/>
     </row>
-    <row r="15" spans="3:31">
+    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C15" s="71"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -19218,7 +19218,7 @@
       <c r="Z15" s="68"/>
       <c r="AA15" s="68"/>
     </row>
-    <row r="16" spans="3:31">
+    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C16" s="71"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -19240,7 +19240,7 @@
       <c r="Z16" s="68"/>
       <c r="AA16" s="68"/>
     </row>
-    <row r="17" spans="3:30">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -19263,7 +19263,7 @@
       <c r="AA17" s="68"/>
       <c r="AD17" s="66"/>
     </row>
-    <row r="18" spans="3:30">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
       <c r="D18" s="68"/>
       <c r="E18" s="73"/>
@@ -19289,7 +19289,7 @@
       <c r="AA18" s="68"/>
       <c r="AD18" s="86"/>
     </row>
-    <row r="19" spans="3:30">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C19" s="71"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -19313,7 +19313,7 @@
       <c r="AA19" s="68"/>
       <c r="AD19" s="86"/>
     </row>
-    <row r="20" spans="3:30">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C20" s="71"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -19335,7 +19335,7 @@
       <c r="AA20" s="68"/>
       <c r="AD20" s="86"/>
     </row>
-    <row r="21" spans="3:30">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C21" s="71"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -19359,7 +19359,7 @@
       <c r="AA21" s="68"/>
       <c r="AD21" s="85"/>
     </row>
-    <row r="22" spans="3:30">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C22" s="71"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -19384,7 +19384,7 @@
       <c r="Z22" s="68"/>
       <c r="AA22" s="68"/>
     </row>
-    <row r="23" spans="3:30">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C23" s="71"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -19406,7 +19406,7 @@
       <c r="Z23" s="68"/>
       <c r="AA23" s="68"/>
     </row>
-    <row r="24" spans="3:30">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C24" s="71"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -19429,7 +19429,7 @@
       <c r="AA24" s="68"/>
       <c r="AD24" s="85"/>
     </row>
-    <row r="25" spans="3:30">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C25" s="71"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -19451,7 +19451,7 @@
       <c r="Z25" s="68"/>
       <c r="AA25" s="68"/>
     </row>
-    <row r="26" spans="3:30">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C26" s="71"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -19473,7 +19473,7 @@
       <c r="Z26" s="68"/>
       <c r="AA26" s="68"/>
     </row>
-    <row r="27" spans="3:30">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C27" s="71"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -19495,7 +19495,7 @@
       <c r="Z27" s="68"/>
       <c r="AA27" s="68"/>
     </row>
-    <row r="28" spans="3:30">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C28" s="71"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -19517,7 +19517,7 @@
       <c r="Z28" s="68"/>
       <c r="AA28" s="68"/>
     </row>
-    <row r="29" spans="3:30">
+    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C29" s="71"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -19539,7 +19539,7 @@
       <c r="Z29" s="68"/>
       <c r="AA29" s="68"/>
     </row>
-    <row r="30" spans="3:30">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C30" s="71"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -19561,7 +19561,7 @@
       <c r="Z30" s="68"/>
       <c r="AA30" s="68"/>
     </row>
-    <row r="31" spans="3:30">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C31" s="71"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -19583,7 +19583,7 @@
       <c r="Z31" s="68"/>
       <c r="AA31" s="68"/>
     </row>
-    <row r="32" spans="3:30">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C32" s="71"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -19605,7 +19605,7 @@
       <c r="Z32" s="68"/>
       <c r="AA32" s="68"/>
     </row>
-    <row r="33" spans="3:27">
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C33" s="71"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -19627,7 +19627,7 @@
       <c r="Z33" s="68"/>
       <c r="AA33" s="68"/>
     </row>
-    <row r="34" spans="3:27">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C34" s="71"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -19649,7 +19649,7 @@
       <c r="Z34" s="68"/>
       <c r="AA34" s="68"/>
     </row>
-    <row r="35" spans="3:27">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C35" s="71"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -19671,7 +19671,7 @@
       <c r="Z35" s="68"/>
       <c r="AA35" s="68"/>
     </row>
-    <row r="36" spans="3:27">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C36" s="71"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -19693,7 +19693,7 @@
       <c r="Z36" s="68"/>
       <c r="AA36" s="68"/>
     </row>
-    <row r="37" spans="3:27">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C37" s="71"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
@@ -19715,7 +19715,7 @@
       <c r="Z37" s="68"/>
       <c r="AA37" s="68"/>
     </row>
-    <row r="38" spans="3:27">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
       <c r="F38" s="68"/>
@@ -19736,7 +19736,7 @@
       <c r="Z38" s="68"/>
       <c r="AA38" s="68"/>
     </row>
-    <row r="39" spans="3:27">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
       <c r="F39" s="68"/>
@@ -19757,7 +19757,7 @@
       <c r="Z39" s="68"/>
       <c r="AA39" s="68"/>
     </row>
-    <row r="40" spans="3:27">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
       <c r="F40" s="68"/>
@@ -19778,7 +19778,7 @@
       <c r="Z40" s="68"/>
       <c r="AA40" s="68"/>
     </row>
-    <row r="41" spans="3:27">
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
       <c r="F41" s="68"/>
@@ -19799,7 +19799,7 @@
       <c r="Z41" s="68"/>
       <c r="AA41" s="68"/>
     </row>
-    <row r="42" spans="3:27">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
       <c r="F42" s="68"/>
@@ -19820,7 +19820,7 @@
       <c r="Z42" s="68"/>
       <c r="AA42" s="68"/>
     </row>
-    <row r="43" spans="3:27">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
       <c r="F43" s="68"/>
@@ -19841,7 +19841,7 @@
       <c r="Z43" s="68"/>
       <c r="AA43" s="68"/>
     </row>
-    <row r="44" spans="3:27">
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D44" s="68"/>
       <c r="E44" s="68"/>
       <c r="F44" s="68"/>
@@ -19862,7 +19862,7 @@
       <c r="Z44" s="68"/>
       <c r="AA44" s="68"/>
     </row>
-    <row r="45" spans="3:27">
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
       <c r="F45" s="68"/>
@@ -19883,7 +19883,7 @@
       <c r="Z45" s="68"/>
       <c r="AA45" s="68"/>
     </row>
-    <row r="46" spans="3:27">
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D46" s="68"/>
       <c r="E46" s="68"/>
       <c r="F46" s="68"/>
@@ -19904,7 +19904,7 @@
       <c r="Z46" s="68"/>
       <c r="AA46" s="68"/>
     </row>
-    <row r="47" spans="3:27">
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D47" s="68"/>
       <c r="E47" s="68"/>
       <c r="F47" s="68"/>
@@ -19925,7 +19925,7 @@
       <c r="Z47" s="68"/>
       <c r="AA47" s="68"/>
     </row>
-    <row r="48" spans="3:27">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D48" s="68"/>
       <c r="E48" s="68"/>
       <c r="F48" s="68"/>
@@ -19946,7 +19946,7 @@
       <c r="Z48" s="68"/>
       <c r="AA48" s="68"/>
     </row>
-    <row r="49" spans="4:27">
+    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
       <c r="F49" s="68"/>
@@ -19967,7 +19967,7 @@
       <c r="Z49" s="68"/>
       <c r="AA49" s="68"/>
     </row>
-    <row r="50" spans="4:27">
+    <row r="50" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="F50" s="68"/>
@@ -19988,7 +19988,7 @@
       <c r="Z50" s="68"/>
       <c r="AA50" s="68"/>
     </row>
-    <row r="51" spans="4:27">
+    <row r="51" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D51" s="68"/>
       <c r="E51" s="68"/>
       <c r="F51" s="68"/>
@@ -20009,7 +20009,7 @@
       <c r="Z51" s="68"/>
       <c r="AA51" s="68"/>
     </row>
-    <row r="52" spans="4:27">
+    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D52" s="68"/>
       <c r="E52" s="68"/>
       <c r="F52" s="68"/>
@@ -20030,7 +20030,7 @@
       <c r="Z52" s="68"/>
       <c r="AA52" s="68"/>
     </row>
-    <row r="53" spans="4:27">
+    <row r="53" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D53" s="68"/>
       <c r="E53" s="68"/>
       <c r="F53" s="68"/>
@@ -20051,7 +20051,7 @@
       <c r="Z53" s="68"/>
       <c r="AA53" s="68"/>
     </row>
-    <row r="54" spans="4:27">
+    <row r="54" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D54" s="68"/>
       <c r="E54" s="68"/>
       <c r="F54" s="68"/>
@@ -20072,7 +20072,7 @@
       <c r="Z54" s="68"/>
       <c r="AA54" s="68"/>
     </row>
-    <row r="55" spans="4:27">
+    <row r="55" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D55" s="68"/>
       <c r="E55" s="68"/>
       <c r="F55" s="68"/>
@@ -20093,7 +20093,7 @@
       <c r="Z55" s="68"/>
       <c r="AA55" s="68"/>
     </row>
-    <row r="56" spans="4:27">
+    <row r="56" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D56" s="68"/>
       <c r="E56" s="68"/>
       <c r="F56" s="68"/>
@@ -20114,7 +20114,7 @@
       <c r="Z56" s="68"/>
       <c r="AA56" s="68"/>
     </row>
-    <row r="57" spans="4:27">
+    <row r="57" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D57" s="68"/>
       <c r="E57" s="68"/>
       <c r="F57" s="68"/>
@@ -20135,7 +20135,7 @@
       <c r="Z57" s="68"/>
       <c r="AA57" s="68"/>
     </row>
-    <row r="58" spans="4:27">
+    <row r="58" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D58" s="68"/>
       <c r="E58" s="68"/>
       <c r="F58" s="68"/>
@@ -20156,7 +20156,7 @@
       <c r="Z58" s="68"/>
       <c r="AA58" s="68"/>
     </row>
-    <row r="59" spans="4:27">
+    <row r="59" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D59" s="68"/>
       <c r="E59" s="68"/>
       <c r="F59" s="68"/>
@@ -20177,7 +20177,7 @@
       <c r="Z59" s="68"/>
       <c r="AA59" s="68"/>
     </row>
-    <row r="60" spans="4:27">
+    <row r="60" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D60" s="68"/>
       <c r="E60" s="68"/>
       <c r="F60" s="68"/>
@@ -20198,7 +20198,7 @@
       <c r="Z60" s="68"/>
       <c r="AA60" s="68"/>
     </row>
-    <row r="61" spans="4:27">
+    <row r="61" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D61" s="68"/>
       <c r="E61" s="68"/>
       <c r="F61" s="68"/>
@@ -20219,7 +20219,7 @@
       <c r="Z61" s="68"/>
       <c r="AA61" s="68"/>
     </row>
-    <row r="62" spans="4:27">
+    <row r="62" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D62" s="68"/>
       <c r="E62" s="68"/>
       <c r="F62" s="68"/>
@@ -20240,7 +20240,7 @@
       <c r="Z62" s="68"/>
       <c r="AA62" s="68"/>
     </row>
-    <row r="63" spans="4:27">
+    <row r="63" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D63" s="68"/>
       <c r="E63" s="68"/>
       <c r="F63" s="68"/>
@@ -20261,7 +20261,7 @@
       <c r="Z63" s="68"/>
       <c r="AA63" s="68"/>
     </row>
-    <row r="64" spans="4:27">
+    <row r="64" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D64" s="68"/>
       <c r="E64" s="68"/>
       <c r="F64" s="68"/>
@@ -20282,7 +20282,7 @@
       <c r="Z64" s="68"/>
       <c r="AA64" s="68"/>
     </row>
-    <row r="65" spans="4:27">
+    <row r="65" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D65" s="68"/>
       <c r="E65" s="68"/>
       <c r="F65" s="68"/>
@@ -20303,7 +20303,7 @@
       <c r="Z65" s="68"/>
       <c r="AA65" s="68"/>
     </row>
-    <row r="66" spans="4:27">
+    <row r="66" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D66" s="68"/>
       <c r="E66" s="68"/>
       <c r="F66" s="68"/>
@@ -20324,7 +20324,7 @@
       <c r="Z66" s="68"/>
       <c r="AA66" s="68"/>
     </row>
-    <row r="67" spans="4:27">
+    <row r="67" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D67" s="68"/>
       <c r="E67" s="68"/>
       <c r="F67" s="68"/>
@@ -20345,7 +20345,7 @@
       <c r="Z67" s="68"/>
       <c r="AA67" s="68"/>
     </row>
-    <row r="68" spans="4:27">
+    <row r="68" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D68" s="68"/>
       <c r="E68" s="68"/>
       <c r="F68" s="68"/>
@@ -20366,7 +20366,7 @@
       <c r="Z68" s="68"/>
       <c r="AA68" s="68"/>
     </row>
-    <row r="69" spans="4:27">
+    <row r="69" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D69" s="68"/>
       <c r="E69" s="68"/>
       <c r="F69" s="68"/>
@@ -20387,7 +20387,7 @@
       <c r="Z69" s="68"/>
       <c r="AA69" s="68"/>
     </row>
-    <row r="70" spans="4:27">
+    <row r="70" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D70" s="68"/>
       <c r="E70" s="68"/>
       <c r="F70" s="68"/>
@@ -20408,7 +20408,7 @@
       <c r="Z70" s="68"/>
       <c r="AA70" s="68"/>
     </row>
-    <row r="71" spans="4:27">
+    <row r="71" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D71" s="68"/>
       <c r="E71" s="68"/>
       <c r="F71" s="68"/>
@@ -20429,7 +20429,7 @@
       <c r="Z71" s="68"/>
       <c r="AA71" s="68"/>
     </row>
-    <row r="72" spans="4:27">
+    <row r="72" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D72" s="68"/>
       <c r="E72" s="68"/>
       <c r="F72" s="68"/>
@@ -20450,7 +20450,7 @@
       <c r="Z72" s="68"/>
       <c r="AA72" s="68"/>
     </row>
-    <row r="73" spans="4:27">
+    <row r="73" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D73" s="68"/>
       <c r="E73" s="68"/>
       <c r="F73" s="68"/>
@@ -20471,7 +20471,7 @@
       <c r="Z73" s="68"/>
       <c r="AA73" s="68"/>
     </row>
-    <row r="74" spans="4:27">
+    <row r="74" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D74" s="68"/>
       <c r="E74" s="68"/>
       <c r="F74" s="68"/>
@@ -20492,7 +20492,7 @@
       <c r="Z74" s="68"/>
       <c r="AA74" s="68"/>
     </row>
-    <row r="75" spans="4:27">
+    <row r="75" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D75" s="68"/>
       <c r="E75" s="68"/>
       <c r="F75" s="68"/>
@@ -20513,7 +20513,7 @@
       <c r="Z75" s="68"/>
       <c r="AA75" s="68"/>
     </row>
-    <row r="76" spans="4:27">
+    <row r="76" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D76" s="68"/>
       <c r="E76" s="68"/>
       <c r="F76" s="68"/>
@@ -20534,7 +20534,7 @@
       <c r="Z76" s="68"/>
       <c r="AA76" s="68"/>
     </row>
-    <row r="77" spans="4:27">
+    <row r="77" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D77" s="68"/>
       <c r="E77" s="68"/>
       <c r="F77" s="68"/>
@@ -20555,7 +20555,7 @@
       <c r="Z77" s="68"/>
       <c r="AA77" s="68"/>
     </row>
-    <row r="78" spans="4:27">
+    <row r="78" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D78" s="68"/>
       <c r="E78" s="68"/>
       <c r="F78" s="68"/>
@@ -20576,7 +20576,7 @@
       <c r="Z78" s="68"/>
       <c r="AA78" s="68"/>
     </row>
-    <row r="79" spans="4:27">
+    <row r="79" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D79" s="68"/>
       <c r="E79" s="68"/>
       <c r="F79" s="68"/>
@@ -20597,7 +20597,7 @@
       <c r="Z79" s="68"/>
       <c r="AA79" s="68"/>
     </row>
-    <row r="80" spans="4:27">
+    <row r="80" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D80" s="68"/>
       <c r="E80" s="68"/>
       <c r="F80" s="68"/>
@@ -20618,7 +20618,7 @@
       <c r="Z80" s="68"/>
       <c r="AA80" s="68"/>
     </row>
-    <row r="81" spans="4:27">
+    <row r="81" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D81" s="68"/>
       <c r="E81" s="68"/>
       <c r="F81" s="68"/>
@@ -20639,7 +20639,7 @@
       <c r="Z81" s="68"/>
       <c r="AA81" s="68"/>
     </row>
-    <row r="82" spans="4:27">
+    <row r="82" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D82" s="68"/>
       <c r="E82" s="68"/>
       <c r="F82" s="68"/>
@@ -20660,7 +20660,7 @@
       <c r="Z82" s="68"/>
       <c r="AA82" s="68"/>
     </row>
-    <row r="83" spans="4:27">
+    <row r="83" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D83" s="68"/>
       <c r="E83" s="68"/>
       <c r="F83" s="68"/>
@@ -20681,7 +20681,7 @@
       <c r="Z83" s="68"/>
       <c r="AA83" s="68"/>
     </row>
-    <row r="84" spans="4:27">
+    <row r="84" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D84" s="68"/>
       <c r="E84" s="68"/>
       <c r="F84" s="68"/>
@@ -20702,7 +20702,7 @@
       <c r="Z84" s="68"/>
       <c r="AA84" s="68"/>
     </row>
-    <row r="85" spans="4:27">
+    <row r="85" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D85" s="68"/>
       <c r="E85" s="68"/>
       <c r="F85" s="68"/>
@@ -20723,7 +20723,7 @@
       <c r="Z85" s="68"/>
       <c r="AA85" s="68"/>
     </row>
-    <row r="86" spans="4:27">
+    <row r="86" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D86" s="68"/>
       <c r="E86" s="68"/>
       <c r="F86" s="68"/>
@@ -20744,7 +20744,7 @@
       <c r="Z86" s="68"/>
       <c r="AA86" s="68"/>
     </row>
-    <row r="87" spans="4:27">
+    <row r="87" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D87" s="68"/>
       <c r="E87" s="68"/>
       <c r="F87" s="68"/>
@@ -20765,7 +20765,7 @@
       <c r="Z87" s="68"/>
       <c r="AA87" s="68"/>
     </row>
-    <row r="88" spans="4:27">
+    <row r="88" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D88" s="68"/>
       <c r="E88" s="68"/>
       <c r="F88" s="68"/>
@@ -20786,7 +20786,7 @@
       <c r="Z88" s="68"/>
       <c r="AA88" s="68"/>
     </row>
-    <row r="89" spans="4:27">
+    <row r="89" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D89" s="68"/>
       <c r="E89" s="68"/>
       <c r="F89" s="68"/>
@@ -20807,7 +20807,7 @@
       <c r="Z89" s="68"/>
       <c r="AA89" s="68"/>
     </row>
-    <row r="90" spans="4:27">
+    <row r="90" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D90" s="68"/>
       <c r="E90" s="68"/>
       <c r="F90" s="68"/>
@@ -20828,7 +20828,7 @@
       <c r="Z90" s="68"/>
       <c r="AA90" s="68"/>
     </row>
-    <row r="91" spans="4:27">
+    <row r="91" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D91" s="68"/>
       <c r="E91" s="68"/>
       <c r="F91" s="68"/>
@@ -20849,7 +20849,7 @@
       <c r="Z91" s="68"/>
       <c r="AA91" s="68"/>
     </row>
-    <row r="92" spans="4:27">
+    <row r="92" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D92" s="68"/>
       <c r="E92" s="68"/>
       <c r="F92" s="68"/>
@@ -20870,7 +20870,7 @@
       <c r="Z92" s="68"/>
       <c r="AA92" s="68"/>
     </row>
-    <row r="93" spans="4:27">
+    <row r="93" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D93" s="68"/>
       <c r="E93" s="68"/>
       <c r="F93" s="68"/>
@@ -20891,7 +20891,7 @@
       <c r="Z93" s="68"/>
       <c r="AA93" s="68"/>
     </row>
-    <row r="94" spans="4:27">
+    <row r="94" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D94" s="68"/>
       <c r="E94" s="68"/>
       <c r="F94" s="68"/>
@@ -20912,7 +20912,7 @@
       <c r="Z94" s="68"/>
       <c r="AA94" s="68"/>
     </row>
-    <row r="95" spans="4:27">
+    <row r="95" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D95" s="68"/>
       <c r="E95" s="68"/>
       <c r="F95" s="68"/>
@@ -20933,7 +20933,7 @@
       <c r="Z95" s="68"/>
       <c r="AA95" s="68"/>
     </row>
-    <row r="96" spans="4:27">
+    <row r="96" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D96" s="68"/>
       <c r="E96" s="68"/>
       <c r="F96" s="68"/>
@@ -20954,7 +20954,7 @@
       <c r="Z96" s="68"/>
       <c r="AA96" s="68"/>
     </row>
-    <row r="97" spans="4:27">
+    <row r="97" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D97" s="68"/>
       <c r="E97" s="68"/>
       <c r="F97" s="68"/>
@@ -20975,7 +20975,7 @@
       <c r="Z97" s="68"/>
       <c r="AA97" s="68"/>
     </row>
-    <row r="98" spans="4:27">
+    <row r="98" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D98" s="68"/>
       <c r="E98" s="68"/>
       <c r="F98" s="68"/>
@@ -20996,7 +20996,7 @@
       <c r="Z98" s="68"/>
       <c r="AA98" s="68"/>
     </row>
-    <row r="99" spans="4:27">
+    <row r="99" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D99" s="68"/>
       <c r="E99" s="68"/>
       <c r="F99" s="68"/>
@@ -21017,7 +21017,7 @@
       <c r="Z99" s="68"/>
       <c r="AA99" s="68"/>
     </row>
-    <row r="100" spans="4:27">
+    <row r="100" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D100" s="68"/>
       <c r="E100" s="68"/>
       <c r="F100" s="68"/>
@@ -21038,7 +21038,7 @@
       <c r="Z100" s="68"/>
       <c r="AA100" s="68"/>
     </row>
-    <row r="101" spans="4:27">
+    <row r="101" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D101" s="68"/>
       <c r="E101" s="68"/>
       <c r="F101" s="68"/>
@@ -21059,7 +21059,7 @@
       <c r="Z101" s="68"/>
       <c r="AA101" s="68"/>
     </row>
-    <row r="102" spans="4:27">
+    <row r="102" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D102" s="68"/>
       <c r="E102" s="68"/>
       <c r="F102" s="68"/>
@@ -21080,7 +21080,7 @@
       <c r="Z102" s="68"/>
       <c r="AA102" s="68"/>
     </row>
-    <row r="103" spans="4:27">
+    <row r="103" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D103" s="68"/>
       <c r="E103" s="68"/>
       <c r="F103" s="68"/>
@@ -21101,7 +21101,7 @@
       <c r="Z103" s="68"/>
       <c r="AA103" s="68"/>
     </row>
-    <row r="104" spans="4:27">
+    <row r="104" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D104" s="68"/>
       <c r="E104" s="68"/>
       <c r="F104" s="68"/>
@@ -21122,7 +21122,7 @@
       <c r="Z104" s="68"/>
       <c r="AA104" s="68"/>
     </row>
-    <row r="105" spans="4:27">
+    <row r="105" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D105" s="68"/>
       <c r="E105" s="68"/>
       <c r="F105" s="68"/>
@@ -21161,7 +21161,7 @@
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -21185,13 +21185,13 @@
     <col min="29" max="29" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17.25">
+    <row r="1" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="107"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="108"/>
       <c r="B2" s="102"/>
       <c r="C2" s="133" t="s">
@@ -21207,7 +21207,7 @@
       <c r="K2" s="102"/>
       <c r="L2" s="103"/>
     </row>
-    <row r="3" spans="1:30" ht="13.5" thickBot="1">
+    <row r="3" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
         <v>144</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="13.5" thickBot="1">
+    <row r="4" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="str">
         <f>RES!O2</f>
         <v>IFAMN</v>
@@ -21320,7 +21320,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="13.5" thickBot="1">
+    <row r="5" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="100"/>
       <c r="C5" s="98"/>
@@ -21329,7 +21329,8 @@
         <v>117</v>
       </c>
       <c r="F5" s="99">
-        <v>4.37</v>
+        <f>O17</f>
+        <v>0.4587</v>
       </c>
       <c r="G5" s="136"/>
       <c r="I5" s="100"/>
@@ -21370,7 +21371,7 @@
         <v>5166.666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="150" t="str">
         <f>RES!D2</f>
         <v>IISCKE</v>
@@ -21396,8 +21397,8 @@
         <v>117</v>
       </c>
       <c r="K6" s="151">
-        <f>(1-X35)*U35</f>
-        <v>9.8455813953488391</v>
+        <f>(1-X35)*U35*F5</f>
+        <v>4.5161681860465128</v>
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="94"/>
@@ -21432,7 +21433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1">
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="150" t="str">
         <f>RES!E2</f>
         <v>IISCOA</v>
@@ -21458,8 +21459,8 @@
         <v>117</v>
       </c>
       <c r="K7" s="151">
-        <f>X35*U35</f>
-        <v>3.2818604651162797</v>
+        <f>X35*U35*F5</f>
+        <v>1.5053893953488375</v>
       </c>
       <c r="L7" s="121"/>
       <c r="Q7" s="146" t="s">
@@ -21487,7 +21488,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1">
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="str">
         <f>RES!F2</f>
         <v>IFAELC</v>
@@ -21513,8 +21514,8 @@
         <v>117</v>
       </c>
       <c r="K8" s="151">
-        <f>U33</f>
-        <v>12.96</v>
+        <f>U33*F5</f>
+        <v>5.9447520000000003</v>
       </c>
       <c r="L8" s="106"/>
       <c r="M8" s="94"/>
@@ -21544,7 +21545,7 @@
         <v>0.18927000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="13.5" thickBot="1">
+    <row r="9" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Commodities_BASE!B15</f>
         <v>CO2SPIFM</v>
@@ -21595,7 +21596,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -21629,7 +21630,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AC11" s="94" t="s">
         <v>221</v>
       </c>
@@ -21638,7 +21639,7 @@
         <v>0.10833333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M12" s="94"/>
       <c r="AC12" s="94" t="s">
         <v>220</v>
@@ -21648,12 +21649,12 @@
         <v>5.8243727598566303E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="O13" s="94" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="O14" s="108"/>
       <c r="P14" s="102"/>
       <c r="Q14" s="102"/>
@@ -21661,7 +21662,7 @@
       <c r="S14" s="102"/>
       <c r="T14" s="103"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="O15" s="98">
         <v>2017</v>
       </c>
@@ -21676,7 +21677,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M16" s="94"/>
       <c r="O16" s="98">
         <v>3.7</v>
@@ -21701,7 +21702,7 @@
         <v>0.21101</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="N17" s="94" t="s">
         <v>271</v>
       </c>
@@ -21731,7 +21732,7 @@
         <v>25.321200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M18" s="94"/>
       <c r="O18" s="98">
         <v>0.2</v>
@@ -21754,7 +21755,7 @@
         <v>1.3613548387096774</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="O19" s="98">
         <f>SUM(O16:O18)</f>
         <v>4.3587000000000007</v>
@@ -21775,7 +21776,7 @@
         <v>0.73456234301691858</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M20" s="94"/>
       <c r="O20" s="98"/>
       <c r="P20" s="100"/>
@@ -21784,7 +21785,7 @@
       <c r="S20" s="100"/>
       <c r="T20" s="167"/>
     </row>
-    <row r="21" spans="1:30" ht="15" customHeight="1">
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M21" s="94"/>
       <c r="O21" s="104"/>
       <c r="P21" s="105"/>
@@ -21793,10 +21794,10 @@
       <c r="S21" s="105"/>
       <c r="T21" s="106"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M22" s="94"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M23" s="94"/>
       <c r="O23" s="168" t="s">
         <v>275</v>
@@ -21810,7 +21811,7 @@
       <c r="V23" s="169"/>
       <c r="W23" s="169"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -21853,7 +21854,7 @@
       <c r="V24" s="169"/>
       <c r="W24" s="169"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -21904,7 +21905,7 @@
       <c r="V25" s="169"/>
       <c r="W25" s="169"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -21953,7 +21954,7 @@
       <c r="V26" s="169"/>
       <c r="W26" s="169"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -22002,7 +22003,7 @@
       <c r="V27" s="169"/>
       <c r="W27" s="169"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -22051,7 +22052,7 @@
       <c r="V28" s="169"/>
       <c r="W28" s="169"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -22100,7 +22101,7 @@
       <c r="V29" s="169"/>
       <c r="W29" s="169"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -22139,7 +22140,7 @@
       <c r="V30" s="169"/>
       <c r="W30" s="169"/>
     </row>
-    <row r="31" spans="1:30" ht="31.5" customHeight="1">
+    <row r="31" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -22178,7 +22179,7 @@
       <c r="V31" s="169"/>
       <c r="W31" s="169"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -22232,7 +22233,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -22293,7 +22294,7 @@
       </c>
       <c r="X33" s="169"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -22339,7 +22340,7 @@
       <c r="W34" s="169"/>
       <c r="X34" s="169"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -22389,7 +22390,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -22428,7 +22429,7 @@
       <c r="V36" s="169"/>
       <c r="W36" s="169"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -22467,7 +22468,7 @@
       <c r="V37" s="169"/>
       <c r="W37" s="169"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -22515,7 +22516,7 @@
       </c>
       <c r="W38" s="169"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -22545,7 +22546,7 @@
       </c>
       <c r="M39" s="94"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -22575,7 +22576,7 @@
       </c>
       <c r="M40" s="94"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>226</v>
       </c>
@@ -22622,7 +22623,7 @@
       <c r="V41" s="177"/>
       <c r="W41" s="177"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>226</v>
       </c>
@@ -22669,7 +22670,7 @@
       <c r="V42" s="177"/>
       <c r="W42" s="177"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -22716,7 +22717,7 @@
       <c r="V43" s="177"/>
       <c r="W43" s="177"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -22746,7 +22747,7 @@
       </c>
       <c r="M44" s="94"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -22776,7 +22777,7 @@
       </c>
       <c r="M45" s="94"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>226</v>
       </c>
@@ -22806,7 +22807,7 @@
       </c>
       <c r="M46" s="94"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>226</v>
       </c>
@@ -22836,7 +22837,7 @@
       </c>
       <c r="M47" s="94"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -22866,7 +22867,7 @@
       </c>
       <c r="M48" s="94"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -22896,7 +22897,7 @@
       </c>
       <c r="M49" s="94"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -22926,7 +22927,7 @@
       </c>
       <c r="M50" s="94"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -22956,7 +22957,7 @@
       </c>
       <c r="M51" s="94"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -22986,7 +22987,7 @@
       </c>
       <c r="M52" s="94"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -23016,7 +23017,7 @@
       </c>
       <c r="M53" s="94"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -23046,7 +23047,7 @@
       </c>
       <c r="M54" s="94"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -23076,7 +23077,7 @@
       </c>
       <c r="M55" s="94"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -23105,7 +23106,7 @@
         <v>3300.373</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>4033.7339999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -23163,7 +23164,7 @@
         <v>1466.846</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -23192,7 +23193,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -23221,7 +23222,7 @@
         <v>608.50019999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -23250,7 +23251,7 @@
         <v>1064.8130000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>203</v>
       </c>
@@ -23279,7 +23280,7 @@
         <v>456.31290000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -23308,7 +23309,7 @@
         <v>304.25009999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>231</v>
       </c>
@@ -23353,7 +23354,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="12" customWidth="1"/>
@@ -23362,7 +23363,7 @@
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>100</v>
       </c>
@@ -23370,8 +23371,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1"/>
-    <row r="7" spans="1:4">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -23385,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
@@ -23396,12 +23397,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
@@ -23412,7 +23413,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>98</v>
       </c>
@@ -23423,7 +23424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>102</v>
       </c>
@@ -23447,7 +23448,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="19" customWidth="1"/>
@@ -23458,17 +23459,17 @@
     <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1"/>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>40</v>
       </c>
@@ -23502,10 +23503,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:C15"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="19" customWidth="1"/>
@@ -23516,7 +23517,7 @@
     <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>Commodities</v>
@@ -23525,18 +23526,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
         <v>Commodities_BASE</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1"/>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>40</v>
       </c>
@@ -23553,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="12.75">
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>115</v>
       </c>
@@ -23561,7 +23562,7 @@
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="12.75">
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="48" t="str">
         <f>RES!D2</f>
@@ -23578,7 +23579,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="12.75">
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="48" t="str">
         <f>RES!E2</f>
@@ -23595,7 +23596,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="12.75">
+    <row r="11" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="48" t="str">
         <f>RES!F2</f>
@@ -23612,7 +23613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" ht="12.75">
+    <row r="12" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="str">
         <f>RES!G2</f>
@@ -23629,7 +23630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" ht="12.75">
+    <row r="13" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="48" t="str">
         <f>RES!O2</f>
@@ -23646,7 +23647,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
         <v>116</v>
       </c>
@@ -23654,12 +23655,12 @@
       <c r="C14" s="48"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="48" t="s">
         <v>293</v>
       </c>
       <c r="D15" s="54" t="s">
@@ -23669,7 +23670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
         <v>204</v>
@@ -23684,7 +23685,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -23709,7 +23710,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="12" customWidth="1"/>
@@ -23720,13 +23721,13 @@
     <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1"/>
-    <row r="7" spans="1:6">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>56</v>
       </c>
@@ -23743,19 +23744,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="E9" s="41"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="44"/>
     </row>
@@ -23777,7 +23778,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="18" customWidth="1"/>
@@ -23788,19 +23789,19 @@
     <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="11.25">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="19" customFormat="1" ht="11.25"/>
-    <row r="3" spans="1:6" s="19" customFormat="1" ht="11.25"/>
-    <row r="4" spans="1:6" s="19" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="5" spans="1:6" s="19" customFormat="1" ht="17.25" customHeight="1">
+    <row r="2" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:6" s="19" customFormat="1" ht="11.25">
+    <row r="6" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>46</v>
       </c>
@@ -23817,16 +23818,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" ht="11.25">
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" ht="11.25">
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" ht="11.25">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD26608-8F0A-423B-B0D5-4DE3B94B48B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64351B-8CB8-4142-92ED-3619690D4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1350" yWindow="-18720" windowWidth="29835" windowHeight="14745" tabRatio="780" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="4272" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -27,17 +27,22 @@
     <sheet name="Processes_BASE" sheetId="31" r:id="rId12"/>
     <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId13"/>
     <sheet name="ProcData_FM" sheetId="56" r:id="rId14"/>
-    <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId15"/>
-    <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId16"/>
-    <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId17"/>
-    <sheet name="ANSv2-692-TID DATA" sheetId="13" state="veryHidden" r:id="rId18"/>
-    <sheet name="ANSv2-692-TS&amp;TID DATA" sheetId="14" state="veryHidden" r:id="rId19"/>
-    <sheet name="ANSv2-692-TS TRADE" sheetId="15" state="veryHidden" r:id="rId20"/>
-    <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId21"/>
-    <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId22"/>
+    <sheet name="ProcData_FM - PAMS" sheetId="61" r:id="rId15"/>
+    <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId16"/>
+    <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId17"/>
+    <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId18"/>
+    <sheet name="ANSv2-692-TID DATA" sheetId="13" state="veryHidden" r:id="rId19"/>
+    <sheet name="ANSv2-692-TS&amp;TID DATA" sheetId="14" state="veryHidden" r:id="rId20"/>
+    <sheet name="ANSv2-692-TS TRADE" sheetId="15" state="veryHidden" r:id="rId21"/>
+    <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId22"/>
+    <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId23"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId24"/>
+  </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="14" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -104,6 +109,30 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ken Noble</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{7417F529-8276-4CEC-A191-BD5A696DF397}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If Process Activity is: Output-based, leave blank.
+Input-based, insert I.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ken Noble</author>
@@ -177,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="295">
   <si>
     <t>Comment</t>
   </si>
@@ -1125,6 +1154,9 @@
   </si>
   <si>
     <t>Process Emissions FerroManganese South Africa</t>
+  </si>
+  <si>
+    <t>linked to FC</t>
   </si>
 </sst>
 </file>
@@ -4890,6 +4922,837 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>843280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="cmdTechNameAndDesc" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157697"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6BE2C7-2771-4B27-B7AD-874D1C1B4522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="257175"/>
+          <a:ext cx="1862455" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="cmdCommIN" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157698"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD87ACB-4205-49DF-8E06-6E304CD3A034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4810125" y="257175"/>
+          <a:ext cx="614680" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="cmdCommOUT" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157699"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7700E9D-F526-472A-A4FE-3579645F66CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5629275" y="257175"/>
+          <a:ext cx="614680" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="cmdAddParameter" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157700"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2F970D-DEFF-4ABC-AC9A-4190A753CD72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="476250"/>
+          <a:ext cx="806450" cy="248754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="cmdAddParamQualifier1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157701"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE9DFD4-D881-46D4-8FCE-F0D0D4D73082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="901700"/>
+          <a:ext cx="806450" cy="245745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="cmdCheckTechDataSheet" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157702"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971CA13D-538A-483C-AE34-2FA5E099DC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="257175"/>
+          <a:ext cx="806450" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="cmdAddParamQualifier2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157703"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA7DF2A-75CB-4D2E-A16A-B5565CECB68A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="1235075"/>
+          <a:ext cx="806450" cy="231775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>843280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="cmdTechNameAndDesc">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D644D7F9-B6AC-4135-B7AC-82299AED27E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="257175"/>
+          <a:ext cx="1862455" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="cmdCommIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F470EF-741F-4C7C-8733-5138687CF46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4810125" y="257175"/>
+          <a:ext cx="614680" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="cmdCommOUT">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84717F59-EC70-4014-BB2E-E2CAB1CA6216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5629275" y="257175"/>
+          <a:ext cx="614680" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="cmdAddParameter">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA4EED1-0B8C-44F1-A8C8-885EEA21A30C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="476250"/>
+          <a:ext cx="806450" cy="248754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="cmdAddParamQualifier1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471710C5-8C5B-4491-B5D3-38C5E42FB73C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="901700"/>
+          <a:ext cx="806450" cy="245745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="cmdCheckTechDataSheet">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725A4C4B-8FCB-4C3A-809D-FB28BCBB04D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="257175"/>
+          <a:ext cx="806450" cy="252095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="cmdAddParamQualifier2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08F4BAE-E074-4709-B110-9F3AF0AB0981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12700" y="1235075"/>
+          <a:ext cx="806450" cy="231775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5834,7 +6697,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6311,7 +7174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7496,7 +8359,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8445,7 +9308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9630,7 +10493,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10815,7 +11678,56 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>474633</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12401550" y="4689835"/>
+          <a:ext cx="9932958" cy="5120082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11764,56 +12676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>117835</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>474633</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>94417</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12401550" y="4689835"/>
-          <a:ext cx="9932958" cy="5120082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15863,6 +16726,74 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ANSv2-692-Home"/>
+      <sheetName val="Index"/>
+      <sheetName val="RES"/>
+      <sheetName val="EB_Exist"/>
+      <sheetName val="ANSv2-692-REGIONS"/>
+      <sheetName val="ANSv2-692-Commodities"/>
+      <sheetName val="Commodities_BASE"/>
+      <sheetName val="ANSv2-692-Processes"/>
+      <sheetName val="ANSv2-692-Constraints"/>
+      <sheetName val="ANSv2-692-CommData"/>
+      <sheetName val="CommData_BASE"/>
+      <sheetName val="Processes_BASE"/>
+      <sheetName val="ANSv2-692-ProcData"/>
+      <sheetName val="ProcData_FCR"/>
+      <sheetName val="ProcData_FCR - PAMS"/>
+      <sheetName val="ANSv2-692-ConstrData"/>
+      <sheetName val="ANSv2-692-ITEMS"/>
+      <sheetName val="ANSv2-692-TS DATA"/>
+      <sheetName val="ANSv2-692-TID DATA"/>
+      <sheetName val="ANSv2-692-TS&amp;TID DATA"/>
+      <sheetName val="ANSv2-692-TS TRADE"/>
+      <sheetName val="ANSv2-692-TID TRADE"/>
+      <sheetName val="ANSv2-692-TS&amp;TID TRADE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0.05</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16927,7 +17858,7 @@
   </sheetPr>
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -17731,6 +18662,185 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06106102-6D52-4F9C-9663-262CB1699783}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>Commodities_BASE!B1</f>
+        <v>REGION1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
+        <v>ProcData_FM - PAMS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="12" t="str">
+        <f>H4</f>
+        <v>PRC_ACTFLO</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f>I4</f>
+        <v>PRC_ACTFLO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="H5" s="12" t="str">
+        <f>E9</f>
+        <v>IFAELC</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f>H5</f>
+        <v>IFAELC</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f>I5</f>
+        <v>IFAELC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="str">
+        <f>Processes_BASE!A8</f>
+        <v>* Conversion technologies</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="50" t="str">
+        <f>Processes_BASE!B10</f>
+        <v>IFMEAF-E</v>
+      </c>
+      <c r="C9" s="50" t="str">
+        <f>Processes_BASE!C10</f>
+        <v>FerroMn existing</v>
+      </c>
+      <c r="D9" s="50" t="str">
+        <f>Processes_BASE!D10</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E9" s="128" t="str">
+        <f>RES!F2</f>
+        <v>IFAELC</v>
+      </c>
+      <c r="F9" s="128" t="str">
+        <f>RES!O2</f>
+        <v>IFAMN</v>
+      </c>
+      <c r="H9" s="165">
+        <f>EB_Exist!K8/EB_Exist!F5</f>
+        <v>12.96</v>
+      </c>
+      <c r="I9" s="165">
+        <f>H9</f>
+        <v>12.96</v>
+      </c>
+      <c r="J9" s="45">
+        <f>H9*(1-[1]Index!M$11)</f>
+        <v>12.311999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+    </row>
+    <row r="11" spans="1:10" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="129"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X9"/>
@@ -18081,7 +19191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G15"/>
@@ -18225,7 +19335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:R7"/>
@@ -18294,7 +19404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I7"/>
@@ -18353,7 +19463,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C52CBF-4FE0-46D1-B70B-95F07BE7C2F3}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B3:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f ca="1">Commodities_BASE!A2</f>
+        <v>Commodities_BASE</v>
+      </c>
+      <c r="E7" s="126">
+        <f t="shared" ref="E7:E11" si="0">$E$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f ca="1">CommData_BASE!A2</f>
+        <v>CommData_BASE</v>
+      </c>
+      <c r="E8" s="126">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f ca="1">Processes_BASE!A2</f>
+        <v>Processes_BASE</v>
+      </c>
+      <c r="E9" s="126">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f ca="1">'ProcData_FM - PAMS'!A2</f>
+        <v>ProcData_FM - PAMS</v>
+      </c>
+      <c r="E10" s="126">
+        <f>[1]Index!$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f ca="1">ProcData_FM!A2</f>
+        <v>ProcData_FM</v>
+      </c>
+      <c r="E11" s="126">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="126"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="126"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="126"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="126"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="126"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="126"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="126"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="126"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="126"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="126"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="126"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="126"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="126"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="126"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R7"/>
@@ -18423,161 +19690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C52CBF-4FE0-46D1-B70B-95F07BE7C2F3}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="B3:E27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="94" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="str">
-        <f ca="1">Commodities_BASE!A2</f>
-        <v>Commodities_BASE</v>
-      </c>
-      <c r="E7" s="126">
-        <f t="shared" ref="E7:E11" si="0">$E$6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="str">
-        <f ca="1">CommData_BASE!A2</f>
-        <v>CommData_BASE</v>
-      </c>
-      <c r="E8" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="str">
-        <f ca="1">Processes_BASE!A2</f>
-        <v>Processes_BASE</v>
-      </c>
-      <c r="E9" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="str">
-        <f ca="1">ProcData_FM!A2</f>
-        <v>ProcData_FM</v>
-      </c>
-      <c r="E11" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="126"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="126"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="126"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="126"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="126"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="126"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="126"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="126"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="126"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="126"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="126"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="126"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="126"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="126"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="126"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="126"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:S9"/>
@@ -18659,7 +19772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:J9"/>
@@ -18731,7 +19844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:S9"/>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64351B-8CB8-4142-92ED-3619690D4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB320C-E4A9-4B31-8834-18774D0BB5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4272" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -19471,7 +19471,7 @@
   <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB320C-E4A9-4B31-8834-18774D0BB5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E042596-4838-44AE-9CA9-0FF642AABBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19471,7 +19471,7 @@
   <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
